--- a/data/Test_A_PP_001.xlsx
+++ b/data/Test_A_PP_001.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -21,154 +22,173 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>bold</t>
-  </si>
-  <si>
-    <t>italic</t>
-  </si>
-  <si>
-    <t>text-size</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>setting</t>
-  </si>
-  <si>
-    <t>indent</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>Topic A</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>255,128,128</t>
-  </si>
-  <si>
-    <t>Topic B</t>
-  </si>
-  <si>
-    <t>255,255,255</t>
-  </si>
-  <si>
-    <t>76,108,156</t>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text-size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195,207,225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76,108,156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195,207,226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76,108,157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195,207,227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76,108,158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195,207,228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76,108,159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195,207,229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76,108,160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic A</t>
   </si>
   <si>
     <t xml:space="preserve"> - Topic A-1</t>
   </si>
   <si>
+    <t xml:space="preserve">255,255,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255,128,128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milestone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200, 0, 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - Topic A-2</t>
   </si>
   <si>
+    <t xml:space="preserve">255,255,255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic B</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - Topic B-1</t>
   </si>
   <si>
     <t xml:space="preserve"> - Topic B-2</t>
   </si>
   <si>
-    <t>Topic C</t>
+    <t xml:space="preserve">Topic C</t>
   </si>
   <si>
     <t xml:space="preserve"> - Topic C-1</t>
   </si>
   <si>
-    <t>255, 128, 128</t>
-  </si>
-  <si>
-    <t>195,207,225</t>
-  </si>
-  <si>
-    <t>milestone</t>
-  </si>
-  <si>
-    <t>200, 0, 0</t>
-  </si>
-  <si>
-    <t>255,255,0</t>
-  </si>
-  <si>
-    <t>text-pos</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>Sprints</t>
-  </si>
-  <si>
-    <t>center</t>
-  </si>
-  <si>
-    <t>195,207,226</t>
-  </si>
-  <si>
-    <t>76,108,157</t>
-  </si>
-  <si>
-    <t>195,207,227</t>
-  </si>
-  <si>
-    <t>76,108,158</t>
-  </si>
-  <si>
-    <t>195,207,228</t>
-  </si>
-  <si>
-    <t>76,108,159</t>
-  </si>
-  <si>
-    <t>195,207,229</t>
-  </si>
-  <si>
-    <t>76,108,160</t>
+    <t xml:space="preserve">255, 128, 128</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -180,346 +200,171 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDEEBF7"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFDEEBF7"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="19.9296875" customWidth="1"/>
-    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -528,40 +373,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G2" s="2"/>
@@ -571,26 +416,26 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="D3" s="3">
-        <f>C3+28</f>
+      <c r="D3" s="3" t="n">
+        <f aca="false">C3+28</f>
         <v>43826</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -598,20 +443,20 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2">
-        <f>B3+1</f>
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <f aca="false">B3+1</f>
         <v>11</v>
       </c>
-      <c r="C4" s="3">
-        <f>D3</f>
+      <c r="C4" s="3" t="n">
+        <f aca="false">D3</f>
         <v>43826</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D18" si="0">C4+28</f>
+      <c r="D4" s="3" t="n">
+        <f aca="false">C4+28</f>
         <v>43854</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -619,7 +464,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -627,28 +472,28 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" ref="B5:B10" si="1">B4+1</f>
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <f aca="false">B4+1</f>
         <v>12</v>
       </c>
-      <c r="C5" s="3">
-        <f t="shared" ref="C5:C18" si="2">D4</f>
+      <c r="C5" s="3" t="n">
+        <f aca="false">D4</f>
         <v>43854</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
+      <c r="D5" s="3" t="n">
+        <f aca="false">C5+28</f>
         <v>43882</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -656,20 +501,20 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <f aca="false">B5+1</f>
         <v>13</v>
       </c>
-      <c r="B6" s="2">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="2"/>
+      <c r="C6" s="3" t="n">
+        <f aca="false">D5</f>
         <v>43882</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
+      <c r="D6" s="3" t="n">
+        <f aca="false">C6+28</f>
         <v>43910</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -677,7 +522,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -685,28 +530,28 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <f aca="false">B6+1</f>
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <f aca="false">D6</f>
         <v>43910</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
+      <c r="D7" s="3" t="n">
+        <f aca="false">C7+28</f>
         <v>43938</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -714,20 +559,20 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <f aca="false">B7+1</f>
         <v>15</v>
       </c>
-      <c r="C8" s="3">
-        <f t="shared" si="2"/>
+      <c r="C8" s="3" t="n">
+        <f aca="false">D7</f>
         <v>43938</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
+      <c r="D8" s="3" t="n">
+        <f aca="false">C8+28</f>
         <v>43966</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -735,7 +580,7 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -743,28 +588,28 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <f aca="false">B8+1</f>
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <f aca="false">D8</f>
         <v>43966</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
+      <c r="D9" s="3" t="n">
+        <f aca="false">C9+28</f>
         <v>43994</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -772,20 +617,20 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <f aca="false">B9+1</f>
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <f aca="false">D9</f>
         <v>43994</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
+      <c r="D10" s="3" t="n">
+        <f aca="false">C10+28</f>
         <v>44022</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -793,7 +638,7 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -801,28 +646,28 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" ref="B11:B16" si="3">B10+1</f>
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <f aca="false">B10+1</f>
         <v>18</v>
       </c>
-      <c r="C11" s="3">
-        <f t="shared" si="2"/>
+      <c r="C11" s="3" t="n">
+        <f aca="false">D10</f>
         <v>44022</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
+      <c r="D11" s="3" t="n">
+        <f aca="false">C11+28</f>
         <v>44050</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -830,28 +675,28 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <f aca="false">B11+1</f>
         <v>19</v>
       </c>
-      <c r="C12" s="3">
-        <f t="shared" si="2"/>
+      <c r="C12" s="3" t="n">
+        <f aca="false">D11</f>
         <v>44050</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
+      <c r="D12" s="3" t="n">
+        <f aca="false">C12+28</f>
         <v>44078</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -859,28 +704,28 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <f aca="false">B12+1</f>
         <v>20</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" si="2"/>
+      <c r="C13" s="3" t="n">
+        <f aca="false">D12</f>
         <v>44078</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
+      <c r="D13" s="3" t="n">
+        <f aca="false">C13+28</f>
         <v>44106</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -888,28 +733,28 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <f aca="false">B13+1</f>
         <v>21</v>
       </c>
-      <c r="C14" s="3">
-        <f t="shared" si="2"/>
+      <c r="C14" s="3" t="n">
+        <f aca="false">D13</f>
         <v>44106</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
+      <c r="D14" s="3" t="n">
+        <f aca="false">C14+28</f>
         <v>44134</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -917,28 +762,28 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <f aca="false">B14+1</f>
         <v>22</v>
       </c>
-      <c r="C15" s="3">
-        <f t="shared" si="2"/>
+      <c r="C15" s="3" t="n">
+        <f aca="false">D14</f>
         <v>44134</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
+      <c r="D15" s="3" t="n">
+        <f aca="false">C15+28</f>
         <v>44162</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -946,28 +791,28 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <f aca="false">B15+1</f>
         <v>23</v>
       </c>
-      <c r="C16" s="3">
-        <f t="shared" si="2"/>
+      <c r="C16" s="3" t="n">
+        <f aca="false">D15</f>
         <v>44162</v>
       </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
+      <c r="D16" s="3" t="n">
+        <f aca="false">C16+28</f>
         <v>44190</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -975,28 +820,28 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" ref="B17:B18" si="4">B16+1</f>
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <f aca="false">B16+1</f>
         <v>24</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" si="2"/>
+      <c r="C17" s="3" t="n">
+        <f aca="false">D16</f>
         <v>44190</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
+      <c r="D17" s="3" t="n">
+        <f aca="false">C17+28</f>
         <v>44218</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1004,28 +849,28 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <f aca="false">B17+1</f>
         <v>25</v>
       </c>
-      <c r="C18" s="3">
-        <f t="shared" si="2"/>
+      <c r="C18" s="3" t="n">
+        <f aca="false">D17</f>
         <v>44218</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
+      <c r="D18" s="3" t="n">
+        <f aca="false">C18+28</f>
         <v>44246</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1033,23 +878,24 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="2">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>18</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="b">
+      <c r="H19" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I19" s="2"/>
@@ -1057,39 +903,39 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2">
+      <c r="J20" s="2" t="n">
         <v>5</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="3">
+      <c r="C21" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="n">
         <v>43891</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1103,22 +949,22 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="5" t="str">
-        <f>TEXT(D22,"TT.MM.JJJJ")</f>
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f aca="false">TEXT(D22,"TT.MM.JJJJ")</f>
         <v>01.05.2020</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="3" t="n">
         <v>43922</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="n">
         <v>43952</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
@@ -1130,15 +976,15 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="3">
+      <c r="C23" s="3" t="n">
         <v>44013</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="n">
         <v>44075</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1152,24 +998,24 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="5" t="str">
-        <f>TEXT(C24,"TT.MM.JJJJ")</f>
+        <v>30</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f aca="false">TEXT(C24,"TT.MM.JJJJ")</f>
         <v>01.09.2020</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="3" t="n">
         <v>44075</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1177,26 +1023,27 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="5" t="str">
-        <f>TEXT(C25,"TT.MM.JJJJ")</f>
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f aca="false">TEXT(C25,"TT.MM.JJJJ")</f>
         <v>10.10.2020</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="3" t="n">
         <v>44114</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="2" t="b">
+        <v>32</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I25" s="2"/>
@@ -1204,39 +1051,39 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="2">
+        <v>34</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2">
+      <c r="J26" s="2" t="n">
         <v>5</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="3">
+      <c r="C27" s="3" t="n">
         <v>43862</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="n">
         <v>43922</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1250,15 +1097,15 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="3">
+      <c r="C28" s="3" t="n">
         <v>43952</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="3" t="n">
         <v>43983</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1272,15 +1119,15 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="3">
+      <c r="C29" s="3" t="n">
         <v>44044</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1294,23 +1141,24 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="2">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2" t="n">
         <v>18</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="2" t="b">
+      <c r="H30" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I30" s="2"/>
@@ -1318,39 +1166,39 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="2">
+        <v>34</v>
+      </c>
+      <c r="F31" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2">
+      <c r="J31" s="2" t="n">
         <v>5</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="3">
+      <c r="C32" s="3" t="n">
         <v>43831</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="n">
         <v>43891</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1364,15 +1212,15 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="3">
+      <c r="C33" s="3" t="n">
         <v>43922</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="n">
         <v>43952</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1386,15 +1234,15 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="3">
+      <c r="C34" s="3" t="n">
         <v>44013</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="3" t="n">
         <v>44075</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1408,39 +1256,39 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="2">
+        <v>34</v>
+      </c>
+      <c r="F35" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="2">
+      <c r="J35" s="2" t="n">
         <v>5</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="3">
+      <c r="C36" s="3" t="n">
         <v>43862</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="3" t="n">
         <v>43922</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1454,15 +1302,15 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="3">
+      <c r="C37" s="3" t="n">
         <v>43952</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="3" t="n">
         <v>43983</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1476,15 +1324,15 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="3">
+      <c r="C38" s="3" t="n">
         <v>44044</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -1498,23 +1346,24 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="2">
+        <v>15</v>
+      </c>
+      <c r="F39" s="2" t="n">
         <v>18</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="2" t="b">
+      <c r="H39" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I39" s="2"/>
@@ -1522,39 +1371,39 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="2">
+        <v>34</v>
+      </c>
+      <c r="F40" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="2">
+      <c r="J40" s="2" t="n">
         <v>5</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="3">
+      <c r="C41" s="3" t="n">
         <v>43831</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="n">
         <v>43891</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -1568,15 +1417,15 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="3">
+      <c r="C42" s="3" t="n">
         <v>43922</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="n">
         <v>43952</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -1590,19 +1439,19 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="3">
+      <c r="C43" s="3" t="n">
         <v>44166</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="n">
         <v>44241</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1612,8 +1461,14 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>